--- a/artfynd/A 37398-2022.xlsx
+++ b/artfynd/A 37398-2022.xlsx
@@ -2444,10 +2444,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>91841297</v>
+        <v>91841152</v>
       </c>
       <c r="B16" t="n">
-        <v>56395</v>
+        <v>56411</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2460,16 +2460,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2484,10 +2484,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>435165.9665010545</v>
+        <v>435739.0389247189</v>
       </c>
       <c r="R16" t="n">
-        <v>6971255.90823228</v>
+        <v>6971194.847051037</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Födosökshack</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2565,10 +2565,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>91841152</v>
+        <v>91841302</v>
       </c>
       <c r="B17" t="n">
-        <v>56411</v>
+        <v>96354</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2577,25 +2577,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100049</v>
+        <v>221952</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2605,10 +2605,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>435739.0389247189</v>
+        <v>435430.9732251486</v>
       </c>
       <c r="R17" t="n">
-        <v>6971194.847051037</v>
+        <v>6971269.849731034</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2651,11 +2651,6 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Födosökshack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2686,10 +2681,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>91841302</v>
+        <v>106029936</v>
       </c>
       <c r="B18" t="n">
-        <v>96354</v>
+        <v>56395</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2698,41 +2693,57 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>221952</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>honfärgad</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Jämtlands län, Jmt</t>
+          <t>Stavbrännhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>435430.9732251486</v>
+        <v>435672.668452872</v>
       </c>
       <c r="R18" t="n">
-        <v>6971269.849731034</v>
+        <v>6971354.125670544</v>
       </c>
       <c r="S18" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2756,7 +2767,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2019-06-01</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2766,7 +2777,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2786,23 +2797,19 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY18" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>106029917</v>
+        <v>106029937</v>
       </c>
       <c r="B19" t="n">
         <v>56395</v>
@@ -2850,10 +2857,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>435518.6180496986</v>
+        <v>435277.8438721292</v>
       </c>
       <c r="R19" t="n">
-        <v>6970728.401884655</v>
+        <v>6971109.868824044</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2927,7 +2934,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>106029936</v>
+        <v>91841297</v>
       </c>
       <c r="B20" t="n">
         <v>56395</v>
@@ -2961,35 +2968,19 @@
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>honfärgad</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Stavbrännhöjden, Jmt</t>
+          <t>Jämtlands län, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>435672.668452872</v>
+        <v>435165.9665010545</v>
       </c>
       <c r="R20" t="n">
-        <v>6971354.125670544</v>
+        <v>6971255.90823228</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -3013,7 +3004,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2019-06-01</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -3023,12 +3014,17 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2019-10-31</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3043,19 +3039,23 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
-        </is>
-      </c>
-      <c r="AY20" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>106029937</v>
+        <v>106029917</v>
       </c>
       <c r="B21" t="n">
         <v>56395</v>
@@ -3103,10 +3103,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>435277.8438721292</v>
+        <v>435518.6180496986</v>
       </c>
       <c r="R21" t="n">
-        <v>6971109.868824044</v>
+        <v>6970728.401884655</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>

--- a/artfynd/A 37398-2022.xlsx
+++ b/artfynd/A 37398-2022.xlsx
@@ -2444,10 +2444,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>91841152</v>
+        <v>91841297</v>
       </c>
       <c r="B16" t="n">
-        <v>56411</v>
+        <v>56395</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2460,16 +2460,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2484,10 +2484,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>435739.0389247189</v>
+        <v>435165.9665010545</v>
       </c>
       <c r="R16" t="n">
-        <v>6971194.847051037</v>
+        <v>6971255.90823228</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2534,7 +2534,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Födosökshack</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2565,10 +2565,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>91841302</v>
+        <v>91841152</v>
       </c>
       <c r="B17" t="n">
-        <v>96354</v>
+        <v>56411</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2577,25 +2577,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221952</v>
+        <v>100049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2605,10 +2605,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>435430.9732251486</v>
+        <v>435739.0389247189</v>
       </c>
       <c r="R17" t="n">
-        <v>6971269.849731034</v>
+        <v>6971194.847051037</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2651,6 +2651,11 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Födosökshack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2681,10 +2686,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>106029936</v>
+        <v>91841302</v>
       </c>
       <c r="B18" t="n">
-        <v>56395</v>
+        <v>96354</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2693,57 +2698,41 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>221952</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>honfärgad</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Stavbrännhöjden, Jmt</t>
+          <t>Jämtlands län, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>435672.668452872</v>
+        <v>435430.9732251486</v>
       </c>
       <c r="R18" t="n">
-        <v>6971354.125670544</v>
+        <v>6971269.849731034</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2767,7 +2756,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2019-06-01</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2777,7 +2766,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2019-10-31</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2797,19 +2786,23 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
-        </is>
-      </c>
-      <c r="AY18" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>106029937</v>
+        <v>106029917</v>
       </c>
       <c r="B19" t="n">
         <v>56395</v>
@@ -2857,10 +2850,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>435277.8438721292</v>
+        <v>435518.6180496986</v>
       </c>
       <c r="R19" t="n">
-        <v>6971109.868824044</v>
+        <v>6970728.401884655</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2934,7 +2927,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>91841297</v>
+        <v>106029936</v>
       </c>
       <c r="B20" t="n">
         <v>56395</v>
@@ -2968,19 +2961,35 @@
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>honfärgad</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Jämtlands län, Jmt</t>
+          <t>Stavbrännhöjden, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>435165.9665010545</v>
+        <v>435672.668452872</v>
       </c>
       <c r="R20" t="n">
-        <v>6971255.90823228</v>
+        <v>6971354.125670544</v>
       </c>
       <c r="S20" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -3004,7 +3013,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2019-06-01</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -3014,17 +3023,12 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2019-10-31</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3039,23 +3043,19 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY20" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>106029917</v>
+        <v>106029937</v>
       </c>
       <c r="B21" t="n">
         <v>56395</v>
@@ -3103,10 +3103,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>435518.6180496986</v>
+        <v>435277.8438721292</v>
       </c>
       <c r="R21" t="n">
-        <v>6970728.401884655</v>
+        <v>6971109.868824044</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
